--- a/backend/public/excel/pifias.xlsx
+++ b/backend/public/excel/pifias.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neru\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neru\OneDrive\Escritorio\RolMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{920AB380-AD69-4C93-8523-ACC818C6C4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6CAB50A-4701-40BC-8EBF-14FA8581858C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0CE14EC8-3F10-480D-A36A-A7725F86D677}"/>
   </bookViews>
@@ -510,9 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBE97D9-A7BA-4042-92B2-17B40AB7ACBA}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
